--- a/lib/template/Book1.xlsx
+++ b/lib/template/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>${table:customers.first_name}</t>
   </si>
@@ -83,6 +83,168 @@
   </si>
   <si>
     <t>${table:donors.amount}</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password_confirmation</t>
+  </si>
+  <si>
+    <t>donationAmount</t>
+  </si>
+  <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>vaughan@vdav.net</t>
+  </si>
+  <si>
+    <t>4 49778515</t>
+  </si>
+  <si>
+    <t>PO Boc 11359, Manners St</t>
+  </si>
+  <si>
+    <t>Te Aro</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>zapper8</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Riches</t>
+  </si>
+  <si>
+    <t>andrewnriches@gmail.com</t>
+  </si>
+  <si>
+    <t>127 Grimsey's Road</t>
+  </si>
+  <si>
+    <t>Redwood</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>Combat1984</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>nickinauckland@gmail.com</t>
+  </si>
+  <si>
+    <t>021 2936724</t>
+  </si>
+  <si>
+    <t>103 Baverstock Rd</t>
+  </si>
+  <si>
+    <t>Flatbush</t>
+  </si>
+  <si>
+    <t>Manukau</t>
+  </si>
+  <si>
+    <t>Fireandrain</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Plumridge</t>
+  </si>
+  <si>
+    <t>plumridg@actrix.co.nz</t>
+  </si>
+  <si>
+    <t>18,Leinster Avenue</t>
+  </si>
+  <si>
+    <t>Raumati South</t>
+  </si>
+  <si>
+    <t>zaqwe1234</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>McMillan</t>
+  </si>
+  <si>
+    <t>bobmcmillan@xtra.co.nz</t>
+  </si>
+  <si>
+    <t>1895 Maheno-Herbert Road</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Oamaru</t>
+  </si>
+  <si>
+    <t>cagiva905</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>jordan.williams@franksogilvie.co.nz</t>
+  </si>
+  <si>
+    <t>021 762 542</t>
+  </si>
+  <si>
+    <t>Apt 1B, 164 The Terrace</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>nztu_2013</t>
   </si>
 </sst>
 </file>
@@ -506,12 +668,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="257" max="257" width="10.7109375" customWidth="1"/>
+    <col min="260" max="260" width="18.28515625" customWidth="1"/>
+    <col min="267" max="267" width="19.42578125" customWidth="1"/>
+    <col min="513" max="513" width="10.7109375" customWidth="1"/>
+    <col min="516" max="516" width="18.28515625" customWidth="1"/>
+    <col min="523" max="523" width="19.42578125" customWidth="1"/>
+    <col min="769" max="769" width="10.7109375" customWidth="1"/>
+    <col min="772" max="772" width="18.28515625" customWidth="1"/>
+    <col min="779" max="779" width="19.42578125" customWidth="1"/>
+    <col min="1025" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1028" max="1028" width="18.28515625" customWidth="1"/>
+    <col min="1035" max="1035" width="19.42578125" customWidth="1"/>
+    <col min="1281" max="1281" width="10.7109375" customWidth="1"/>
+    <col min="1284" max="1284" width="18.28515625" customWidth="1"/>
+    <col min="1291" max="1291" width="19.42578125" customWidth="1"/>
+    <col min="1537" max="1537" width="10.7109375" customWidth="1"/>
+    <col min="1540" max="1540" width="18.28515625" customWidth="1"/>
+    <col min="1547" max="1547" width="19.42578125" customWidth="1"/>
+    <col min="1793" max="1793" width="10.7109375" customWidth="1"/>
+    <col min="1796" max="1796" width="18.28515625" customWidth="1"/>
+    <col min="1803" max="1803" width="19.42578125" customWidth="1"/>
+    <col min="2049" max="2049" width="10.7109375" customWidth="1"/>
+    <col min="2052" max="2052" width="18.28515625" customWidth="1"/>
+    <col min="2059" max="2059" width="19.42578125" customWidth="1"/>
+    <col min="2305" max="2305" width="10.7109375" customWidth="1"/>
+    <col min="2308" max="2308" width="18.28515625" customWidth="1"/>
+    <col min="2315" max="2315" width="19.42578125" customWidth="1"/>
+    <col min="2561" max="2561" width="10.7109375" customWidth="1"/>
+    <col min="2564" max="2564" width="18.28515625" customWidth="1"/>
+    <col min="2571" max="2571" width="19.42578125" customWidth="1"/>
+    <col min="2817" max="2817" width="10.7109375" customWidth="1"/>
+    <col min="2820" max="2820" width="18.28515625" customWidth="1"/>
+    <col min="2827" max="2827" width="19.42578125" customWidth="1"/>
+    <col min="3073" max="3073" width="10.7109375" customWidth="1"/>
+    <col min="3076" max="3076" width="18.28515625" customWidth="1"/>
+    <col min="3083" max="3083" width="19.42578125" customWidth="1"/>
+    <col min="3329" max="3329" width="10.7109375" customWidth="1"/>
+    <col min="3332" max="3332" width="18.28515625" customWidth="1"/>
+    <col min="3339" max="3339" width="19.42578125" customWidth="1"/>
+    <col min="3585" max="3585" width="10.7109375" customWidth="1"/>
+    <col min="3588" max="3588" width="18.28515625" customWidth="1"/>
+    <col min="3595" max="3595" width="19.42578125" customWidth="1"/>
+    <col min="3841" max="3841" width="10.7109375" customWidth="1"/>
+    <col min="3844" max="3844" width="18.28515625" customWidth="1"/>
+    <col min="3851" max="3851" width="19.42578125" customWidth="1"/>
+    <col min="4097" max="4097" width="10.7109375" customWidth="1"/>
+    <col min="4100" max="4100" width="18.28515625" customWidth="1"/>
+    <col min="4107" max="4107" width="19.42578125" customWidth="1"/>
+    <col min="4353" max="4353" width="10.7109375" customWidth="1"/>
+    <col min="4356" max="4356" width="18.28515625" customWidth="1"/>
+    <col min="4363" max="4363" width="19.42578125" customWidth="1"/>
+    <col min="4609" max="4609" width="10.7109375" customWidth="1"/>
+    <col min="4612" max="4612" width="18.28515625" customWidth="1"/>
+    <col min="4619" max="4619" width="19.42578125" customWidth="1"/>
+    <col min="4865" max="4865" width="10.7109375" customWidth="1"/>
+    <col min="4868" max="4868" width="18.28515625" customWidth="1"/>
+    <col min="4875" max="4875" width="19.42578125" customWidth="1"/>
+    <col min="5121" max="5121" width="10.7109375" customWidth="1"/>
+    <col min="5124" max="5124" width="18.28515625" customWidth="1"/>
+    <col min="5131" max="5131" width="19.42578125" customWidth="1"/>
+    <col min="5377" max="5377" width="10.7109375" customWidth="1"/>
+    <col min="5380" max="5380" width="18.28515625" customWidth="1"/>
+    <col min="5387" max="5387" width="19.42578125" customWidth="1"/>
+    <col min="5633" max="5633" width="10.7109375" customWidth="1"/>
+    <col min="5636" max="5636" width="18.28515625" customWidth="1"/>
+    <col min="5643" max="5643" width="19.42578125" customWidth="1"/>
+    <col min="5889" max="5889" width="10.7109375" customWidth="1"/>
+    <col min="5892" max="5892" width="18.28515625" customWidth="1"/>
+    <col min="5899" max="5899" width="19.42578125" customWidth="1"/>
+    <col min="6145" max="6145" width="10.7109375" customWidth="1"/>
+    <col min="6148" max="6148" width="18.28515625" customWidth="1"/>
+    <col min="6155" max="6155" width="19.42578125" customWidth="1"/>
+    <col min="6401" max="6401" width="10.7109375" customWidth="1"/>
+    <col min="6404" max="6404" width="18.28515625" customWidth="1"/>
+    <col min="6411" max="6411" width="19.42578125" customWidth="1"/>
+    <col min="6657" max="6657" width="10.7109375" customWidth="1"/>
+    <col min="6660" max="6660" width="18.28515625" customWidth="1"/>
+    <col min="6667" max="6667" width="19.42578125" customWidth="1"/>
+    <col min="6913" max="6913" width="10.7109375" customWidth="1"/>
+    <col min="6916" max="6916" width="18.28515625" customWidth="1"/>
+    <col min="6923" max="6923" width="19.42578125" customWidth="1"/>
+    <col min="7169" max="7169" width="10.7109375" customWidth="1"/>
+    <col min="7172" max="7172" width="18.28515625" customWidth="1"/>
+    <col min="7179" max="7179" width="19.42578125" customWidth="1"/>
+    <col min="7425" max="7425" width="10.7109375" customWidth="1"/>
+    <col min="7428" max="7428" width="18.28515625" customWidth="1"/>
+    <col min="7435" max="7435" width="19.42578125" customWidth="1"/>
+    <col min="7681" max="7681" width="10.7109375" customWidth="1"/>
+    <col min="7684" max="7684" width="18.28515625" customWidth="1"/>
+    <col min="7691" max="7691" width="19.42578125" customWidth="1"/>
+    <col min="7937" max="7937" width="10.7109375" customWidth="1"/>
+    <col min="7940" max="7940" width="18.28515625" customWidth="1"/>
+    <col min="7947" max="7947" width="19.42578125" customWidth="1"/>
+    <col min="8193" max="8193" width="10.7109375" customWidth="1"/>
+    <col min="8196" max="8196" width="18.28515625" customWidth="1"/>
+    <col min="8203" max="8203" width="19.42578125" customWidth="1"/>
+    <col min="8449" max="8449" width="10.7109375" customWidth="1"/>
+    <col min="8452" max="8452" width="18.28515625" customWidth="1"/>
+    <col min="8459" max="8459" width="19.42578125" customWidth="1"/>
+    <col min="8705" max="8705" width="10.7109375" customWidth="1"/>
+    <col min="8708" max="8708" width="18.28515625" customWidth="1"/>
+    <col min="8715" max="8715" width="19.42578125" customWidth="1"/>
+    <col min="8961" max="8961" width="10.7109375" customWidth="1"/>
+    <col min="8964" max="8964" width="18.28515625" customWidth="1"/>
+    <col min="8971" max="8971" width="19.42578125" customWidth="1"/>
+    <col min="9217" max="9217" width="10.7109375" customWidth="1"/>
+    <col min="9220" max="9220" width="18.28515625" customWidth="1"/>
+    <col min="9227" max="9227" width="19.42578125" customWidth="1"/>
+    <col min="9473" max="9473" width="10.7109375" customWidth="1"/>
+    <col min="9476" max="9476" width="18.28515625" customWidth="1"/>
+    <col min="9483" max="9483" width="19.42578125" customWidth="1"/>
+    <col min="9729" max="9729" width="10.7109375" customWidth="1"/>
+    <col min="9732" max="9732" width="18.28515625" customWidth="1"/>
+    <col min="9739" max="9739" width="19.42578125" customWidth="1"/>
+    <col min="9985" max="9985" width="10.7109375" customWidth="1"/>
+    <col min="9988" max="9988" width="18.28515625" customWidth="1"/>
+    <col min="9995" max="9995" width="19.42578125" customWidth="1"/>
+    <col min="10241" max="10241" width="10.7109375" customWidth="1"/>
+    <col min="10244" max="10244" width="18.28515625" customWidth="1"/>
+    <col min="10251" max="10251" width="19.42578125" customWidth="1"/>
+    <col min="10497" max="10497" width="10.7109375" customWidth="1"/>
+    <col min="10500" max="10500" width="18.28515625" customWidth="1"/>
+    <col min="10507" max="10507" width="19.42578125" customWidth="1"/>
+    <col min="10753" max="10753" width="10.7109375" customWidth="1"/>
+    <col min="10756" max="10756" width="18.28515625" customWidth="1"/>
+    <col min="10763" max="10763" width="19.42578125" customWidth="1"/>
+    <col min="11009" max="11009" width="10.7109375" customWidth="1"/>
+    <col min="11012" max="11012" width="18.28515625" customWidth="1"/>
+    <col min="11019" max="11019" width="19.42578125" customWidth="1"/>
+    <col min="11265" max="11265" width="10.7109375" customWidth="1"/>
+    <col min="11268" max="11268" width="18.28515625" customWidth="1"/>
+    <col min="11275" max="11275" width="19.42578125" customWidth="1"/>
+    <col min="11521" max="11521" width="10.7109375" customWidth="1"/>
+    <col min="11524" max="11524" width="18.28515625" customWidth="1"/>
+    <col min="11531" max="11531" width="19.42578125" customWidth="1"/>
+    <col min="11777" max="11777" width="10.7109375" customWidth="1"/>
+    <col min="11780" max="11780" width="18.28515625" customWidth="1"/>
+    <col min="11787" max="11787" width="19.42578125" customWidth="1"/>
+    <col min="12033" max="12033" width="10.7109375" customWidth="1"/>
+    <col min="12036" max="12036" width="18.28515625" customWidth="1"/>
+    <col min="12043" max="12043" width="19.42578125" customWidth="1"/>
+    <col min="12289" max="12289" width="10.7109375" customWidth="1"/>
+    <col min="12292" max="12292" width="18.28515625" customWidth="1"/>
+    <col min="12299" max="12299" width="19.42578125" customWidth="1"/>
+    <col min="12545" max="12545" width="10.7109375" customWidth="1"/>
+    <col min="12548" max="12548" width="18.28515625" customWidth="1"/>
+    <col min="12555" max="12555" width="19.42578125" customWidth="1"/>
+    <col min="12801" max="12801" width="10.7109375" customWidth="1"/>
+    <col min="12804" max="12804" width="18.28515625" customWidth="1"/>
+    <col min="12811" max="12811" width="19.42578125" customWidth="1"/>
+    <col min="13057" max="13057" width="10.7109375" customWidth="1"/>
+    <col min="13060" max="13060" width="18.28515625" customWidth="1"/>
+    <col min="13067" max="13067" width="19.42578125" customWidth="1"/>
+    <col min="13313" max="13313" width="10.7109375" customWidth="1"/>
+    <col min="13316" max="13316" width="18.28515625" customWidth="1"/>
+    <col min="13323" max="13323" width="19.42578125" customWidth="1"/>
+    <col min="13569" max="13569" width="10.7109375" customWidth="1"/>
+    <col min="13572" max="13572" width="18.28515625" customWidth="1"/>
+    <col min="13579" max="13579" width="19.42578125" customWidth="1"/>
+    <col min="13825" max="13825" width="10.7109375" customWidth="1"/>
+    <col min="13828" max="13828" width="18.28515625" customWidth="1"/>
+    <col min="13835" max="13835" width="19.42578125" customWidth="1"/>
+    <col min="14081" max="14081" width="10.7109375" customWidth="1"/>
+    <col min="14084" max="14084" width="18.28515625" customWidth="1"/>
+    <col min="14091" max="14091" width="19.42578125" customWidth="1"/>
+    <col min="14337" max="14337" width="10.7109375" customWidth="1"/>
+    <col min="14340" max="14340" width="18.28515625" customWidth="1"/>
+    <col min="14347" max="14347" width="19.42578125" customWidth="1"/>
+    <col min="14593" max="14593" width="10.7109375" customWidth="1"/>
+    <col min="14596" max="14596" width="18.28515625" customWidth="1"/>
+    <col min="14603" max="14603" width="19.42578125" customWidth="1"/>
+    <col min="14849" max="14849" width="10.7109375" customWidth="1"/>
+    <col min="14852" max="14852" width="18.28515625" customWidth="1"/>
+    <col min="14859" max="14859" width="19.42578125" customWidth="1"/>
+    <col min="15105" max="15105" width="10.7109375" customWidth="1"/>
+    <col min="15108" max="15108" width="18.28515625" customWidth="1"/>
+    <col min="15115" max="15115" width="19.42578125" customWidth="1"/>
+    <col min="15361" max="15361" width="10.7109375" customWidth="1"/>
+    <col min="15364" max="15364" width="18.28515625" customWidth="1"/>
+    <col min="15371" max="15371" width="19.42578125" customWidth="1"/>
+    <col min="15617" max="15617" width="10.7109375" customWidth="1"/>
+    <col min="15620" max="15620" width="18.28515625" customWidth="1"/>
+    <col min="15627" max="15627" width="19.42578125" customWidth="1"/>
+    <col min="15873" max="15873" width="10.7109375" customWidth="1"/>
+    <col min="15876" max="15876" width="18.28515625" customWidth="1"/>
+    <col min="15883" max="15883" width="19.42578125" customWidth="1"/>
+    <col min="16129" max="16129" width="10.7109375" customWidth="1"/>
+    <col min="16132" max="16132" width="18.28515625" customWidth="1"/>
+    <col min="16139" max="16139" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>6142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>21982115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>8013</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4">
+        <v>2016</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>5032</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>21448002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>9495</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>6011</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lib/template/Book1.xlsx
+++ b/lib/template/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>${table:customers.first_name}</t>
   </si>
@@ -55,9 +55,6 @@
     <t>${table:customers.amount}</t>
   </si>
   <si>
-    <t>{table:customers.donationAmount}</t>
-  </si>
-  <si>
     <t>${table:donors.first_name}</t>
   </si>
   <si>
@@ -245,14 +242,21 @@
   </si>
   <si>
     <t>nztu_2013</t>
+  </si>
+  <si>
+    <t>${table:customers.donationAmount}</t>
+  </si>
+  <si>
+    <t>${table:customers.created_on}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -283,9 +287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,9 +586,10 @@
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +618,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -633,31 +642,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -670,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,69 +881,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
       <c r="H2">
         <v>6142</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -942,34 +951,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
       <c r="D3">
         <v>21982115</v>
       </c>
       <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
       </c>
       <c r="H3">
         <v>8013</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -977,34 +986,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
       </c>
       <c r="H4">
         <v>2016</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1012,31 +1021,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>5032</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1044,34 +1053,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
       </c>
       <c r="D6">
         <v>21448002</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
       </c>
       <c r="H6">
         <v>9495</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1079,34 +1088,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>6011</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>5</v>

--- a/lib/template/Book1.xlsx
+++ b/lib/template/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,9 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -517,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
